--- a/biology/Zoologie/Chactas_(genre)/Chactas_(genre).xlsx
+++ b/biology/Zoologie/Chactas_(genre)/Chactas_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chactas est un genre de scorpions de la famille des Chactidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Amérique du Sud et en Amérique centrale.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (25/04/2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (25/04/2020) :
 Chactas adornellae Rossi, 2014
 Chactas aequinoctialis (Karsch, 1879)
 Chactas alarconi González-Sponga, 2003
@@ -596,7 +612,7 @@
 Chactas turguaensis González-Sponga, 2007
 Chactas yaupi Lourenço, 2014
 Chactas yupai González-Sponga, 1994
-Selon World Spider Catalog (version 20.5, 2020)[2] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Chactas pleistocenicus Lourenço &amp; Weitschat, 2005</t>
         </is>
       </c>
@@ -625,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gervais, 1844 : Aceres Phryneides, Scorpionides, Solpugides, Phalangides et Acarides; Diceres Epizoiques, Aphanipteres et Thysonoures. Histoire naturelle des Insectes Aptères par M. le Baron Walckenaer, Roret, Paris.</t>
         </is>
